--- a/macros/MiniProyecto Calculadora.xlsx
+++ b/macros/MiniProyecto Calculadora.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jose7\OneDrive\Documentos\GitHub\LIB010\macros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6F53F2-E781-4C85-AC94-0976AEBC8C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,10 +25,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,7 +50,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +58,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +97,1082 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Uno" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectángulo: esquinas redondeadas 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CDA11C-1DC5-7234-B13B-4E54E9FB74EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1043940" y="3474720"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!dos" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectángulo: esquinas redondeadas 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDA166F-48A8-4C3D-A392-4AF89CFA7F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1859280" y="3482340"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!tres" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectángulo: esquinas redondeadas 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AAB9256-4BB9-47E1-ABC0-D0CA775855F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712720" y="3451860"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!cero" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectángulo: esquinas redondeadas 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF7E932-C0C9-48F7-845B-5EDB113ED98D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1882140" y="4030980"/>
+          <a:ext cx="746760" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!cuatro" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectángulo: esquinas redondeadas 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4F6AD07-B6F8-4C94-91F4-0EA299CDE29A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1051560" y="2895600"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!cinco" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectángulo: esquinas redondeadas 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C32DB22-BE32-4C3F-BBB5-45C40F285FB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2895600"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!seis" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectángulo: esquinas redondeadas 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F626069-A992-4452-B082-2B6C388F6F9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712720" y="2895600"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!siete" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectángulo: esquinas redondeadas 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BDA86B-8026-421C-8C67-E344EB4C8A25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1036320" y="2331720"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!ocho" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectángulo: esquinas redondeadas 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F743C5D9-1668-431F-A8C4-2E968FDB9E46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2324100"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!nueve" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectángulo: esquinas redondeadas 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8311AEC-3F71-49DE-964B-4B70B870DB28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2720340" y="2324100"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Suma" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectángulo: esquinas redondeadas 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD8C8C7C-CF0D-4848-984F-E5BC616D8F83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718560" y="3436620"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>+</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Resta" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectángulo: esquinas redondeadas 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C092098-B442-4E05-819B-F1DFF56E56EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718560" y="2895600"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Multiplicacion" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectángulo: esquinas redondeadas 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{558F1C79-8CE6-4954-80A9-6946CF1DF0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3718560" y="2354580"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>x</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!igual" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectángulo: esquinas redondeadas 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CEFABB-63C3-46EB-BAED-0480873615A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3726180" y="4000500"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>=</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!division" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectángulo: esquinas redondeadas 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD6C0830-BFF6-4407-ACFC-C1F6BB9C07CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3710940" y="1783080"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>/</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Borrar" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectángulo: esquinas redondeadas 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351AFB8A-77CD-46BB-A5AF-435A8D768C50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3695700" y="1181100"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>&lt;-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!Cuadrado" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectángulo: esquinas redondeadas 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41754FA4-EB8D-4909-84B2-DF779B0011D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4617720" y="2354580"/>
+          <a:ext cx="739140" cy="487680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1400"/>
+            <a:t>X^2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +1437,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="C8:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:E11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>